--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
@@ -1,83 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invad\Desktop\MultifacetedModeling\DataOutput\SVR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E8E59D-BB20-4F70-8E55-95F00B344434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="3045" windowWidth="16350" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Kernels</t>
-  </si>
-  <si>
-    <t>[1, 3, 9, 11, 17, 21, 29, 33]</t>
-  </si>
-  <si>
-    <t>[8, 19]</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[4, 9, 11, 12, 19, 32, 33, 36, 44]</t>
-  </si>
-  <si>
-    <t>[13, 28, 29, 31, 44]</t>
-  </si>
-  <si>
-    <t>[3, 19, 32, 33, 35, 36, 44]</t>
-  </si>
-  <si>
-    <t>[1, 6, 9, 17, 28, 35, 37]</t>
-  </si>
-  <si>
-    <t>[3, 6, 13, 19, 20, 25, 26, 34, 35, 42]</t>
-  </si>
-  <si>
-    <t>[28, 31]</t>
-  </si>
-  <si>
-    <t>[22, 33]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,24 +45,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,70 +409,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Kernels</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[25, 36]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[25, 36]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 3, 9, 17, 20, 26, 29, 33, 34]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[25, 36]</t>
+          <t>[30]</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/kernels.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[9, 19, 20, 25, 26, 28, 31, 37]</t>
         </is>
       </c>
     </row>
